--- a/DeliveryList.xlsx
+++ b/DeliveryList.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Esab\Integrations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Integration</t>
   </si>
@@ -343,6 +338,9 @@
   </si>
   <si>
     <t>Örjan</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -889,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -900,7 +898,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1110,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/DeliveryList.xlsx
+++ b/DeliveryList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20256" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Integration</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>l</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,20 +901,20 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" style="24" customWidth="1"/>
     <col min="8" max="8" width="29" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -938,7 +941,7 @@
       </c>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -946,6 +949,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="28"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -993,7 +999,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1115,7 +1121,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1165,7 +1171,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1189,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1195,7 +1201,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1282,7 +1288,7 @@
       <c r="F22" s="28"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1299,7 +1305,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1346,7 +1352,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="F28" s="28"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>56</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1396,7 +1402,7 @@
       <c r="F30" s="28"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>58</v>
       </c>
@@ -1426,7 +1432,7 @@
       <c r="F32" s="28"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>59</v>
       </c>

--- a/DeliveryList.xlsx
+++ b/DeliveryList.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Esab\Integrations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>Integration</t>
   </si>
@@ -343,6 +338,9 @@
   </si>
   <si>
     <t>Örjan</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -889,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1435,11 @@
       <c r="F33" s="28"/>
       <c r="G33" s="2"/>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DeliveryList.xlsx
+++ b/DeliveryList.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Integration</t>
   </si>
@@ -36,13 +36,7 @@
     <t>Mapping</t>
   </si>
   <si>
-    <t>ESIS001_EDIPO_EDI_TO_XML.xlsx</t>
-  </si>
-  <si>
     <t>ESIS001_EDIPO_EDI_TO_XML</t>
-  </si>
-  <si>
-    <t>ESIS001_EDIPO_EDI_To_XML.xsd</t>
   </si>
   <si>
     <t>Input: QL.ESIS001_EDIPO_EDI_TO_XML_023.IN
@@ -52,16 +46,7 @@
     <t>ESIS002_EDIOC_EDI_TO_XML</t>
   </si>
   <si>
-    <t>ESIS002_EDIOC_XML_TO_EDI.xlsx</t>
-  </si>
-  <si>
-    <t>ESIS002_EDIOC_EDI_TO_XML.xlsx</t>
-  </si>
-  <si>
     <t>ESIS002_EDIOC_XML_TO_EDI</t>
-  </si>
-  <si>
-    <t>ESIS002_EDIOC_EDI_TO_XML.xsd</t>
   </si>
   <si>
     <t>Output: QA.ESIS002_EDIOC.QMATLS_018.rfh
@@ -75,9 +60,6 @@
   </si>
   <si>
     <t>Input: QL.RTQ_ESIS001_S_1.rfh</t>
-  </si>
-  <si>
-    <t>ESIS001_EDIPO_XML_TO_EDI.xsd</t>
   </si>
   <si>
     <t>ESIS001_EDIPO_EDI_TO_EBM_Body.xsd
@@ -85,30 +67,12 @@
 MBM_Envelope.xsd</t>
   </si>
   <si>
-    <t>ESIS001_EDIPO_XML_TO_EDI.xlsx</t>
-  </si>
-  <si>
-    <t>ESIS002_EDIOC_XML_TO_EDI.xsd</t>
-  </si>
-  <si>
     <t>QL.ESIS002_EDIOC_XML_TO_EDI_751067.IN.rfh</t>
   </si>
   <si>
-    <t>ESIS001_EDIPO_DD_TO_EDI.mms</t>
-  </si>
-  <si>
-    <t>ESIS001_EDIPO_XML_TO_EDI.mms</t>
-  </si>
-  <si>
-    <t>ESIS001_EDIPO_EDI_TO_XML.mms</t>
-  </si>
-  <si>
     <t>ESIS001_DD.mtt</t>
   </si>
   <si>
-    <t>ESIS001_EDIPO_DD_TO_EDI.xlsx</t>
-  </si>
-  <si>
     <t>ESIS001_EDIPO_DD_TO_EDI</t>
   </si>
   <si>
@@ -166,9 +130,6 @@
     <t>ESIS002_DD.mtt</t>
   </si>
   <si>
-    <t>ESIS002_DD.mtt, ESIS002_DD0A_OUT.mtt</t>
-  </si>
-  <si>
     <t>ESIS002.DD_Input.txt</t>
   </si>
   <si>
@@ -217,9 +178,6 @@
     <t>ESIS005_DD_Input.txt</t>
   </si>
   <si>
-    <t>ESIS003_DD.mtt</t>
-  </si>
-  <si>
     <t>ESIS003_DD0A_IN.mtt</t>
   </si>
   <si>
@@ -232,22 +190,13 @@
     <t>ESIS003_DD0A_Input.txt, ESIS003_DD0D0A_Input.txt, ESIS003_DD0D0A_MultipleMessages_Input.txt</t>
   </si>
   <si>
-    <t>ESIS002_EDIOC_XML_TO_EDI.mms</t>
-  </si>
-  <si>
     <t>Mozhgan, In work</t>
   </si>
   <si>
     <t>Done, Mozhgan</t>
   </si>
   <si>
-    <t>ESIS002_EDIOC_EDI_TO_XML.mms</t>
-  </si>
-  <si>
     <t>BY who</t>
-  </si>
-  <si>
-    <t>ESIS001_EDIPO_EDI_TO_EBM.xlsx</t>
   </si>
   <si>
     <t>Typetree is validated</t>
@@ -288,28 +237,70 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The only real thing it does is that it cast the message from one CCSID to another and then routes the message and logs it
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How it would work with xCBL?
-Routing or transformating?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>SPLIT is not applicable</t>
+    <t>XSD was build against testfiles which didn't contain all fields, have tried to find an schema from MEC environment, now found a one, just need to validate it and then begin the mapping</t>
+  </si>
+  <si>
+    <t>Örjan</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_DD_TO_xCBL.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_DD_TO_xCBL.mms</t>
+  </si>
+  <si>
+    <t>It's going to be handled in DataPower</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_EBM_TO_xCBL.xlsx</t>
+  </si>
+  <si>
+    <t>Mozhgan, Working on</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_TO_DD.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_TO_DD.mms</t>
+  </si>
+  <si>
+    <t>Örjan
+Imran: mapping, Spec, Done  20140214</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_TO_EBM.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_TO_XML.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_To_XML.xsd</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_xCBL_TO_XML.mms</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only real thing it does is that it cast the message from one CCSID to another and then routes the message and logs it
+</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_XML_TO_xCBL.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_XML_TO_xCBL.xsd</t>
+  </si>
+  <si>
+    <t>ESIS001_EDIPO_XML_TO_xCBL.mms</t>
   </si>
   <si>
     <r>
@@ -324,23 +315,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>According ESAB, this flow is not needed anymore, Correct?</t>
+      <t>According ESAB, this flow is not needed anymore.</t>
     </r>
   </si>
   <si>
-    <t>Comments 20140211</t>
-  </si>
-  <si>
-    <t>XSD was build against testfiles which didn't contain all fields, have tried to find an schema from MEC environment, now found a one, just need to validate it and then begin the mapping</t>
-  </si>
-  <si>
-    <t>ESIS002_EDIOC_EDI_TO_EDIX.xlsx</t>
-  </si>
-  <si>
-    <t>Örjan</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>ESIS002_EDIOC_DD_TO_xCBL.mms</t>
+  </si>
+  <si>
+    <t>Örjan
+Imran: Map Done 20170218</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_DD.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_DD.mms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Örjan
+Mozhgan: Map, Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done 20140218</t>
+    </r>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_XML.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_XML.xsd</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_XML.mms</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_EDIX.xlsx</t>
+  </si>
+  <si>
+    <t>esab_env.mtt
+edifd96a.mtt</t>
+  </si>
+  <si>
+    <t>OrderResponseSample-ABC_xCBL40.xml</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_xCBL_TO_EDIX.mms</t>
+  </si>
+  <si>
+    <t>Mozhgan, Done
+20140213</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_XML_TO_xCBL.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_XML_TO_xCBL.xsd</t>
+  </si>
+  <si>
+    <t>ESIS002_EDIOC_XML_TO_xCBL.mms</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_DD_TO_xCBL.xlsx</t>
+  </si>
+  <si>
+    <t>ESIS003_DD.mtt
+esab_env_MM.mtt</t>
+  </si>
+  <si>
+    <t>ESIS003_A_IN_01.txt</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_DD_TO_xCBL.mms</t>
+  </si>
+  <si>
+    <t>Örjan
+Mozhgan, Done 140228</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_EBM_TO_EDI</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_EDI_TO_EBM</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_EDI_TO_EDIX</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_XML_TO_EDI</t>
+  </si>
+  <si>
+    <t>ESIS003_EDIDA_EDI_TO_XML</t>
   </si>
 </sst>
 </file>
@@ -436,18 +508,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -464,6 +530,34 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -538,40 +632,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,29 +668,87 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -908,540 +1048,668 @@
     <col min="3" max="3" width="34.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" style="19" customWidth="1"/>
     <col min="8" max="8" width="29" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="28"/>
+      <c r="F1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="2"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="B19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>52</v>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>54</v>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>55</v>
+      <c r="A28" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="28"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>56</v>
+      <c r="A29" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="28"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="44" t="s">
+        <v>106</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="28"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>57</v>
+      <c r="A31" s="44" t="s">
+        <v>107</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>58</v>
+      <c r="A32" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="28"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A33" s="45"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="28"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>86</v>
-      </c>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>